--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H2">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N2">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q2">
-        <v>50.01483317160157</v>
+        <v>89.15302089871489</v>
       </c>
       <c r="R2">
-        <v>50.01483317160157</v>
+        <v>802.3771880884339</v>
       </c>
       <c r="S2">
-        <v>0.001187810769847388</v>
+        <v>0.001969134772782396</v>
       </c>
       <c r="T2">
-        <v>0.001187810769847388</v>
+        <v>0.001969134772782395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H3">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N3">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q3">
-        <v>92.22743734344958</v>
+        <v>162.5977668552051</v>
       </c>
       <c r="R3">
-        <v>92.22743734344958</v>
+        <v>1463.379901696846</v>
       </c>
       <c r="S3">
-        <v>0.002190325077684682</v>
+        <v>0.003591318762547557</v>
       </c>
       <c r="T3">
-        <v>0.002190325077684682</v>
+        <v>0.003591318762547556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H4">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N4">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q4">
-        <v>71.08402613126431</v>
+        <v>139.5448006732049</v>
       </c>
       <c r="R4">
-        <v>71.08402613126431</v>
+        <v>1255.903206058844</v>
       </c>
       <c r="S4">
-        <v>0.00168818661282211</v>
+        <v>0.003082144795505823</v>
       </c>
       <c r="T4">
-        <v>0.00168818661282211</v>
+        <v>0.003082144795505822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H5">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I5">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J5">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N5">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q5">
-        <v>29.05977957629877</v>
+        <v>55.92503943816221</v>
       </c>
       <c r="R5">
-        <v>29.05977957629877</v>
+        <v>503.3253549434598</v>
       </c>
       <c r="S5">
-        <v>0.0006901456420276117</v>
+        <v>0.001235223873703863</v>
       </c>
       <c r="T5">
-        <v>0.0006901456420276117</v>
+        <v>0.001235223873703863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N6">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q6">
-        <v>8485.150396882324</v>
+        <v>8722.04955202702</v>
       </c>
       <c r="R6">
-        <v>8485.150396882324</v>
+        <v>78498.44596824316</v>
       </c>
       <c r="S6">
-        <v>0.2015152782897691</v>
+        <v>0.1926450824626526</v>
       </c>
       <c r="T6">
-        <v>0.2015152782897691</v>
+        <v>0.1926450824626526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N7">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q7">
-        <v>15646.6317480901</v>
+        <v>15907.32165061698</v>
       </c>
       <c r="R7">
-        <v>15646.6317480901</v>
+        <v>143165.8948555528</v>
       </c>
       <c r="S7">
-        <v>0.3715945155400456</v>
+        <v>0.3513471544576194</v>
       </c>
       <c r="T7">
-        <v>0.3715945155400456</v>
+        <v>0.3513471544576193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J8">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N8">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q8">
-        <v>12059.59540983062</v>
+        <v>13651.99579251689</v>
       </c>
       <c r="R8">
-        <v>12059.59540983062</v>
+        <v>122867.962132652</v>
       </c>
       <c r="S8">
-        <v>0.2864053801529505</v>
+        <v>0.3015334686579474</v>
       </c>
       <c r="T8">
-        <v>0.2864053801529505</v>
+        <v>0.3015334686579473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J9">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N9">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q9">
-        <v>4930.069432784803</v>
+        <v>5471.27803703786</v>
       </c>
       <c r="R9">
-        <v>4930.069432784803</v>
+        <v>49241.50233334074</v>
       </c>
       <c r="S9">
-        <v>0.1170850565124393</v>
+        <v>0.1208448544500993</v>
       </c>
       <c r="T9">
-        <v>0.1170850565124393</v>
+        <v>0.1208448544500992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H10">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I10">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J10">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N10">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q10">
-        <v>153.2930888425991</v>
+        <v>3.937761169432999</v>
       </c>
       <c r="R10">
-        <v>153.2930888425991</v>
+        <v>35.439850524897</v>
       </c>
       <c r="S10">
-        <v>0.00364058360938008</v>
+        <v>8.697386098057123E-05</v>
       </c>
       <c r="T10">
-        <v>0.00364058360938008</v>
+        <v>8.69738609805712E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H11">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I11">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J11">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N11">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q11">
-        <v>282.6727162701428</v>
+        <v>7.181710345926998</v>
       </c>
       <c r="R11">
-        <v>282.6727162701428</v>
+        <v>64.63539311334299</v>
       </c>
       <c r="S11">
-        <v>0.006713242361034933</v>
+        <v>0.0001586234030844802</v>
       </c>
       <c r="T11">
-        <v>0.006713242361034933</v>
+        <v>0.0001586234030844802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.36251180739028</v>
+        <v>0.08498099999999999</v>
       </c>
       <c r="H12">
-        <v>3.36251180739028</v>
+        <v>0.254943</v>
       </c>
       <c r="I12">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="J12">
-        <v>0.0176433014024136</v>
+        <v>0.000436289251037145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N12">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q12">
-        <v>217.8691648464136</v>
+        <v>6.163493866477999</v>
       </c>
       <c r="R12">
-        <v>217.8691648464136</v>
+        <v>55.47144479830199</v>
       </c>
       <c r="S12">
-        <v>0.005174211809011204</v>
+        <v>0.000136133918648715</v>
       </c>
       <c r="T12">
-        <v>0.005174211809011204</v>
+        <v>0.000136133918648715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.254943</v>
+      </c>
+      <c r="I13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.06683666666666</v>
+      </c>
+      <c r="N13">
+        <v>87.20050999999998</v>
+      </c>
+      <c r="O13">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="P13">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="Q13">
+        <v>2.470128846769999</v>
+      </c>
+      <c r="R13">
+        <v>22.23115962092999</v>
+      </c>
+      <c r="S13">
+        <v>5.455806832337856E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.455806832337855E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.624172</v>
+      </c>
+      <c r="I14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.33695966666667</v>
+      </c>
+      <c r="N14">
+        <v>139.010879</v>
+      </c>
+      <c r="O14">
+        <v>0.1993490803952133</v>
+      </c>
+      <c r="P14">
+        <v>0.1993490803952133</v>
+      </c>
+      <c r="Q14">
+        <v>210.4342361519098</v>
+      </c>
+      <c r="R14">
+        <v>1893.908125367188</v>
+      </c>
+      <c r="S14">
+        <v>0.004647889298797736</v>
+      </c>
+      <c r="T14">
+        <v>0.004647889298797735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.624172</v>
+      </c>
+      <c r="I15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.50960033333332</v>
+      </c>
+      <c r="N15">
+        <v>253.528801</v>
+      </c>
+      <c r="O15">
+        <v>0.3635739425333109</v>
+      </c>
+      <c r="P15">
+        <v>0.3635739425333109</v>
+      </c>
+      <c r="Q15">
+        <v>383.7911101975302</v>
+      </c>
+      <c r="R15">
+        <v>3454.119991777772</v>
+      </c>
+      <c r="S15">
+        <v>0.008476845910059462</v>
+      </c>
+      <c r="T15">
+        <v>0.00847684591005946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="H13">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="I13">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="J13">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>26.4881879002395</v>
-      </c>
-      <c r="N13">
-        <v>26.4881879002395</v>
-      </c>
-      <c r="O13">
-        <v>0.1198904657774543</v>
-      </c>
-      <c r="P13">
-        <v>0.1198904657774543</v>
-      </c>
-      <c r="Q13">
-        <v>89.06684457092766</v>
-      </c>
-      <c r="R13">
-        <v>89.06684457092766</v>
-      </c>
-      <c r="S13">
-        <v>0.002115263622987379</v>
-      </c>
-      <c r="T13">
-        <v>0.002115263622987379</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.624172</v>
+      </c>
+      <c r="I16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.52790466666666</v>
+      </c>
+      <c r="N16">
+        <v>217.583714</v>
+      </c>
+      <c r="O16">
+        <v>0.3120267536390091</v>
+      </c>
+      <c r="P16">
+        <v>0.3120267536390091</v>
+      </c>
+      <c r="Q16">
+        <v>329.3775493260897</v>
+      </c>
+      <c r="R16">
+        <v>2964.397943934808</v>
+      </c>
+      <c r="S16">
+        <v>0.007275006266907118</v>
+      </c>
+      <c r="T16">
+        <v>0.007275006266907118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H17">
+        <v>13.624172</v>
+      </c>
+      <c r="I17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.06683666666666</v>
+      </c>
+      <c r="N17">
+        <v>87.20050999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="P17">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="Q17">
+        <v>132.0038607475244</v>
+      </c>
+      <c r="R17">
+        <v>1188.03474672772</v>
+      </c>
+      <c r="S17">
+        <v>0.002915587040340238</v>
+      </c>
+      <c r="T17">
+        <v>0.002915587040340238</v>
       </c>
     </row>
   </sheetData>
